--- a/data/pca/factorExposure/factorExposure_2019-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1272839823807294</v>
+        <v>0.07880325960179106</v>
       </c>
       <c r="C2">
-        <v>-0.0006777109611676395</v>
+        <v>0.03635930746709228</v>
       </c>
       <c r="D2">
-        <v>0.05338296108002045</v>
+        <v>0.01380710435561785</v>
       </c>
       <c r="E2">
-        <v>0.1102431928533814</v>
+        <v>0.03965258892934386</v>
       </c>
       <c r="F2">
-        <v>0.1058841028967656</v>
+        <v>-0.1393279005570074</v>
       </c>
       <c r="G2">
-        <v>-0.01497683961751026</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1062555073636212</v>
+      </c>
+      <c r="H2">
+        <v>0.05658168702241621</v>
+      </c>
+      <c r="I2">
+        <v>-0.0283114003681458</v>
+      </c>
+      <c r="J2">
+        <v>-0.06869349599001694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2291848662742722</v>
+        <v>0.1699459568383154</v>
       </c>
       <c r="C3">
-        <v>-0.1170327906316649</v>
+        <v>0.0931725737444716</v>
       </c>
       <c r="D3">
-        <v>-0.02530328044689121</v>
+        <v>-0.03108327201755957</v>
       </c>
       <c r="E3">
-        <v>0.3207408538474819</v>
+        <v>-0.01679302808921048</v>
       </c>
       <c r="F3">
-        <v>0.02454201871422381</v>
+        <v>-0.3699339619246976</v>
       </c>
       <c r="G3">
-        <v>-0.1081274466838767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09479488936035213</v>
+      </c>
+      <c r="H3">
+        <v>0.2806684156837304</v>
+      </c>
+      <c r="I3">
+        <v>-0.192162182949104</v>
+      </c>
+      <c r="J3">
+        <v>-0.2401880879164188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09806170504540532</v>
+        <v>0.07509839918224052</v>
       </c>
       <c r="C4">
-        <v>-0.03684311819304333</v>
+        <v>0.03875403505222384</v>
       </c>
       <c r="D4">
-        <v>0.03035387388246723</v>
+        <v>-0.02622114526706285</v>
       </c>
       <c r="E4">
-        <v>0.07225928273645343</v>
+        <v>0.03585843188046984</v>
       </c>
       <c r="F4">
-        <v>0.03734408589487862</v>
+        <v>-0.08176620325305564</v>
       </c>
       <c r="G4">
-        <v>-0.03546190693573811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04776132540235123</v>
+      </c>
+      <c r="H4">
+        <v>0.02611633431150897</v>
+      </c>
+      <c r="I4">
+        <v>-0.03557328776925064</v>
+      </c>
+      <c r="J4">
+        <v>-0.0559795865037656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.018026036950327</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008792172890276716</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009026846975464388</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004865956443786768</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001913844763410091</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02081942317769506</v>
+      </c>
+      <c r="H6">
+        <v>0.0003751082117332741</v>
+      </c>
+      <c r="I6">
+        <v>0.01232354090045963</v>
+      </c>
+      <c r="J6">
+        <v>-0.001333465545149426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04192464363572218</v>
+        <v>0.03539329014087369</v>
       </c>
       <c r="C7">
-        <v>-0.008836677723256608</v>
+        <v>0.00815144711339966</v>
       </c>
       <c r="D7">
-        <v>0.03633273214409583</v>
+        <v>-0.03970234260171897</v>
       </c>
       <c r="E7">
-        <v>0.07211778830015785</v>
+        <v>0.02810173340797829</v>
       </c>
       <c r="F7">
-        <v>-0.05228012714964786</v>
+        <v>-0.0552629458474193</v>
       </c>
       <c r="G7">
-        <v>0.002847464405242616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005399872399455771</v>
+      </c>
+      <c r="H7">
+        <v>0.04719567605279319</v>
+      </c>
+      <c r="I7">
+        <v>0.002730008104198552</v>
+      </c>
+      <c r="J7">
+        <v>-0.05025925510396952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04311771670896769</v>
+        <v>0.03102764863601085</v>
       </c>
       <c r="C8">
-        <v>-0.04695427978108346</v>
+        <v>0.04274400625125125</v>
       </c>
       <c r="D8">
-        <v>0.008209510786792306</v>
+        <v>-0.027046847972742</v>
       </c>
       <c r="E8">
-        <v>0.06732876957751288</v>
+        <v>0.01646973784535697</v>
       </c>
       <c r="F8">
-        <v>0.008439052967851857</v>
+        <v>-0.07200862148919075</v>
       </c>
       <c r="G8">
-        <v>-0.01723175539424653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02399966890484138</v>
+      </c>
+      <c r="H8">
+        <v>0.0469134558062759</v>
+      </c>
+      <c r="I8">
+        <v>-0.03508902020819154</v>
+      </c>
+      <c r="J8">
+        <v>-0.05877992836542258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08549785274185175</v>
+        <v>0.06247233023720106</v>
       </c>
       <c r="C9">
-        <v>-0.03660260071552812</v>
+        <v>0.03485847879925266</v>
       </c>
       <c r="D9">
-        <v>0.03828852022544827</v>
+        <v>-0.03003931922125609</v>
       </c>
       <c r="E9">
-        <v>0.05646594349774876</v>
+        <v>0.032334768030257</v>
       </c>
       <c r="F9">
-        <v>0.0252838494456128</v>
+        <v>-0.08178538284451553</v>
       </c>
       <c r="G9">
-        <v>-0.05368577185837771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04409192189179807</v>
+      </c>
+      <c r="H9">
+        <v>0.02173349374471576</v>
+      </c>
+      <c r="I9">
+        <v>-0.01592720556969882</v>
+      </c>
+      <c r="J9">
+        <v>-0.03720230864306612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0003661354401011692</v>
+        <v>0.02101790522239258</v>
       </c>
       <c r="C10">
-        <v>0.1561678047101865</v>
+        <v>-0.1453320612581025</v>
       </c>
       <c r="D10">
-        <v>-0.01296698706178945</v>
+        <v>0.0556747209426777</v>
       </c>
       <c r="E10">
-        <v>0.07304032719089187</v>
+        <v>-0.02178121830606688</v>
       </c>
       <c r="F10">
-        <v>0.01644232196167708</v>
+        <v>-0.071722441844704</v>
       </c>
       <c r="G10">
-        <v>0.02265977187862822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02330102350784186</v>
+      </c>
+      <c r="H10">
+        <v>0.003885014347302783</v>
+      </c>
+      <c r="I10">
+        <v>-0.1070752186741232</v>
+      </c>
+      <c r="J10">
+        <v>0.01294295333572118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05705521963580173</v>
+        <v>0.0501441150213722</v>
       </c>
       <c r="C11">
-        <v>-0.008960497411672246</v>
+        <v>0.02711707217920265</v>
       </c>
       <c r="D11">
-        <v>-0.004998847114588662</v>
+        <v>-0.000457516150232266</v>
       </c>
       <c r="E11">
-        <v>0.0407735572628168</v>
+        <v>0.006395980401910717</v>
       </c>
       <c r="F11">
-        <v>0.00593945346120592</v>
+        <v>-0.03918146054288355</v>
       </c>
       <c r="G11">
-        <v>0.0202073963873074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008600632056228668</v>
+      </c>
+      <c r="H11">
+        <v>0.00235751477457187</v>
+      </c>
+      <c r="I11">
+        <v>0.00998809161826357</v>
+      </c>
+      <c r="J11">
+        <v>-0.04244265650888691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0441009141484491</v>
+        <v>0.04734924888979517</v>
       </c>
       <c r="C12">
-        <v>-0.01580912052233515</v>
+        <v>0.02226504382291011</v>
       </c>
       <c r="D12">
-        <v>-0.003049154788494029</v>
+        <v>-0.01029362199060217</v>
       </c>
       <c r="E12">
-        <v>0.02917203510023805</v>
+        <v>0.008946013535437426</v>
       </c>
       <c r="F12">
-        <v>-0.002825194225879876</v>
+        <v>-0.0165117863661444</v>
       </c>
       <c r="G12">
-        <v>-0.001601991919130788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0003173664116275742</v>
+      </c>
+      <c r="H12">
+        <v>0.002625885887936267</v>
+      </c>
+      <c r="I12">
+        <v>0.01115525965671384</v>
+      </c>
+      <c r="J12">
+        <v>-0.0267135205171369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06440033750352106</v>
+        <v>0.04358184925907779</v>
       </c>
       <c r="C13">
-        <v>-0.02212792494220569</v>
+        <v>0.02933878553103735</v>
       </c>
       <c r="D13">
-        <v>-0.003851866116011155</v>
+        <v>0.006998849206130643</v>
       </c>
       <c r="E13">
-        <v>0.1065689951767884</v>
+        <v>0.007706301773951787</v>
       </c>
       <c r="F13">
-        <v>0.01585668970695468</v>
+        <v>-0.103836479417648</v>
       </c>
       <c r="G13">
-        <v>0.00299853253433502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02245201607498245</v>
+      </c>
+      <c r="H13">
+        <v>0.04729680611696503</v>
+      </c>
+      <c r="I13">
+        <v>-0.01155992967724581</v>
+      </c>
+      <c r="J13">
+        <v>-0.05718062916417097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03252087875673341</v>
+        <v>0.02750742923902537</v>
       </c>
       <c r="C14">
-        <v>-0.01130493958142817</v>
+        <v>0.01426786938150861</v>
       </c>
       <c r="D14">
-        <v>0.02729222765633731</v>
+        <v>-0.01007857575342736</v>
       </c>
       <c r="E14">
-        <v>0.02668864432599164</v>
+        <v>0.02463712061932687</v>
       </c>
       <c r="F14">
-        <v>0.01014975990893475</v>
+        <v>-0.04104404974169738</v>
       </c>
       <c r="G14">
-        <v>0.02939488309818547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03014074820782306</v>
+      </c>
+      <c r="H14">
+        <v>0.05352948914414653</v>
+      </c>
+      <c r="I14">
+        <v>-0.01005608812402764</v>
+      </c>
+      <c r="J14">
+        <v>-0.01510465551985642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04650286686595019</v>
+        <v>0.04513353262842403</v>
       </c>
       <c r="C16">
-        <v>-0.02508613284837872</v>
+        <v>0.03340696765393799</v>
       </c>
       <c r="D16">
-        <v>-0.0102198247983614</v>
+        <v>-0.008764451238354442</v>
       </c>
       <c r="E16">
-        <v>0.03450291219329668</v>
+        <v>0.002672364402727221</v>
       </c>
       <c r="F16">
-        <v>-0.005789902909520056</v>
+        <v>-0.03303984159835392</v>
       </c>
       <c r="G16">
-        <v>0.005923945969290237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004307356337830203</v>
+      </c>
+      <c r="H16">
+        <v>0.008956786848889548</v>
+      </c>
+      <c r="I16">
+        <v>0.009571614148408401</v>
+      </c>
+      <c r="J16">
+        <v>-0.03632213983656671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05283355302822845</v>
+        <v>0.04806057753077415</v>
       </c>
       <c r="C19">
-        <v>-0.03404088463822128</v>
+        <v>0.04217358576519198</v>
       </c>
       <c r="D19">
-        <v>0.0001301801196908427</v>
+        <v>-0.01177338013421966</v>
       </c>
       <c r="E19">
-        <v>0.0712112542352201</v>
+        <v>0.01639517638901391</v>
       </c>
       <c r="F19">
-        <v>-0.01542161043473112</v>
+        <v>-0.08079466474370328</v>
       </c>
       <c r="G19">
-        <v>0.03243534327201855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01279209579141912</v>
+      </c>
+      <c r="H19">
+        <v>0.08409501068957349</v>
+      </c>
+      <c r="I19">
+        <v>-0.03382557721028437</v>
+      </c>
+      <c r="J19">
+        <v>-0.04262197373172209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.0378220819652464</v>
+        <v>0.01946484329967153</v>
       </c>
       <c r="C20">
-        <v>-0.04082855043539829</v>
+        <v>0.02869333822351988</v>
       </c>
       <c r="D20">
-        <v>0.01910457667162758</v>
+        <v>-0.01659688553795516</v>
       </c>
       <c r="E20">
-        <v>0.06413699381309332</v>
+        <v>0.01847488956242316</v>
       </c>
       <c r="F20">
-        <v>-0.01196787533763796</v>
+        <v>-0.06623564217349091</v>
       </c>
       <c r="G20">
-        <v>0.00968666232791624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01490523792621965</v>
+      </c>
+      <c r="H20">
+        <v>0.07181756591032888</v>
+      </c>
+      <c r="I20">
+        <v>-0.0209241957450261</v>
+      </c>
+      <c r="J20">
+        <v>-0.07442748564937728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03991325155139264</v>
+        <v>0.02480719411940055</v>
       </c>
       <c r="C21">
-        <v>-0.02686454570632026</v>
+        <v>0.02631206962081379</v>
       </c>
       <c r="D21">
-        <v>0.01081677804209837</v>
+        <v>-0.02478144695189537</v>
       </c>
       <c r="E21">
-        <v>0.09476542487789563</v>
+        <v>0.006448259644973672</v>
       </c>
       <c r="F21">
-        <v>0.05038871900920103</v>
+        <v>-0.07804915765294315</v>
       </c>
       <c r="G21">
-        <v>0.01407740511055455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03637516618736102</v>
+      </c>
+      <c r="H21">
+        <v>0.02501716038847247</v>
+      </c>
+      <c r="I21">
+        <v>0.01058520082126763</v>
+      </c>
+      <c r="J21">
+        <v>-0.03039308223227944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04869797450002539</v>
+        <v>0.04401602405748009</v>
       </c>
       <c r="C24">
-        <v>-0.01686327369016735</v>
+        <v>0.02210661226240695</v>
       </c>
       <c r="D24">
-        <v>-0.0007401050989737967</v>
+        <v>-0.005177480702499281</v>
       </c>
       <c r="E24">
-        <v>0.04283334046841594</v>
+        <v>0.008002387589637682</v>
       </c>
       <c r="F24">
-        <v>-0.004644880442217107</v>
+        <v>-0.03977702138626685</v>
       </c>
       <c r="G24">
-        <v>-0.001061729690715434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003080849001575756</v>
+      </c>
+      <c r="H24">
+        <v>0.007991865181667623</v>
+      </c>
+      <c r="I24">
+        <v>0.007353376153039591</v>
+      </c>
+      <c r="J24">
+        <v>-0.04207683081403615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05016172790803472</v>
+        <v>0.04685448744717453</v>
       </c>
       <c r="C25">
-        <v>-0.008424967983667618</v>
+        <v>0.02296724633626279</v>
       </c>
       <c r="D25">
-        <v>-0.001639048873607189</v>
+        <v>-0.004292673906203248</v>
       </c>
       <c r="E25">
-        <v>0.04174545665365775</v>
+        <v>0.006881968633366627</v>
       </c>
       <c r="F25">
-        <v>0.007575986850652758</v>
+        <v>-0.04397651123397974</v>
       </c>
       <c r="G25">
-        <v>0.008835856181122604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00518381783507667</v>
+      </c>
+      <c r="H25">
+        <v>1.08384064303521e-05</v>
+      </c>
+      <c r="I25">
+        <v>0.01003316971432804</v>
+      </c>
+      <c r="J25">
+        <v>-0.03435030114567762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01404232038720293</v>
+        <v>0.01624831961117738</v>
       </c>
       <c r="C26">
-        <v>-0.02722874163083077</v>
+        <v>0.02508231188215088</v>
       </c>
       <c r="D26">
-        <v>0.003798614122798564</v>
+        <v>-0.00400525533179885</v>
       </c>
       <c r="E26">
-        <v>0.03595740618728565</v>
+        <v>0.0003137782833437457</v>
       </c>
       <c r="F26">
-        <v>0.01979463961813522</v>
+        <v>-0.04468068295813164</v>
       </c>
       <c r="G26">
-        <v>0.01976363811532572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02061562827604127</v>
+      </c>
+      <c r="H26">
+        <v>0.03219238513215146</v>
+      </c>
+      <c r="I26">
+        <v>0.003611540454205835</v>
+      </c>
+      <c r="J26">
+        <v>-0.03752514416936503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1157218566092628</v>
+        <v>0.08066146539891313</v>
       </c>
       <c r="C27">
-        <v>-0.03058394340637215</v>
+        <v>0.02978800103572295</v>
       </c>
       <c r="D27">
-        <v>0.03075005984344701</v>
+        <v>-0.01207194075578937</v>
       </c>
       <c r="E27">
-        <v>0.09713167462301633</v>
+        <v>0.03241423510279019</v>
       </c>
       <c r="F27">
-        <v>0.009779653351924357</v>
+        <v>-0.06920475888602991</v>
       </c>
       <c r="G27">
-        <v>-0.008129317340027751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01732966354984405</v>
+      </c>
+      <c r="H27">
+        <v>0.01113161328144862</v>
+      </c>
+      <c r="I27">
+        <v>-0.02183323265279191</v>
+      </c>
+      <c r="J27">
+        <v>-0.04245572137911157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.003368812419594781</v>
+        <v>0.03919496354742593</v>
       </c>
       <c r="C28">
-        <v>0.242884861387943</v>
+        <v>-0.2239116864915826</v>
       </c>
       <c r="D28">
-        <v>-0.01578167468390218</v>
+        <v>0.07548595681648572</v>
       </c>
       <c r="E28">
-        <v>0.04727553678226543</v>
+        <v>-0.03551305641092727</v>
       </c>
       <c r="F28">
-        <v>0.02007096009027429</v>
+        <v>-0.05776203128897427</v>
       </c>
       <c r="G28">
-        <v>0.003898743595256748</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02402205172903306</v>
+      </c>
+      <c r="H28">
+        <v>-0.002145778049486461</v>
+      </c>
+      <c r="I28">
+        <v>-0.1532278841890699</v>
+      </c>
+      <c r="J28">
+        <v>0.004554795021132918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02227771161723691</v>
+        <v>0.02228954199147958</v>
       </c>
       <c r="C29">
-        <v>-0.01963884088367004</v>
+        <v>0.01640954294882409</v>
       </c>
       <c r="D29">
-        <v>0.03355283812100952</v>
+        <v>-0.01562727491266049</v>
       </c>
       <c r="E29">
-        <v>0.02568720606078206</v>
+        <v>0.02669999117406853</v>
       </c>
       <c r="F29">
-        <v>0.01643902452862193</v>
+        <v>-0.0363447116316939</v>
       </c>
       <c r="G29">
-        <v>0.0239425879351717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03218069226140356</v>
+      </c>
+      <c r="H29">
+        <v>0.04951076906090283</v>
+      </c>
+      <c r="I29">
+        <v>-0.001949316085413887</v>
+      </c>
+      <c r="J29">
+        <v>-0.008748568931805803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1028928117382791</v>
+        <v>0.09323751651122521</v>
       </c>
       <c r="C30">
-        <v>-0.01705961250502199</v>
+        <v>0.05522004629144222</v>
       </c>
       <c r="D30">
-        <v>0.02334632579389446</v>
+        <v>0.02390437125830832</v>
       </c>
       <c r="E30">
-        <v>0.1111908752255955</v>
+        <v>0.03002345058270296</v>
       </c>
       <c r="F30">
-        <v>0.003346748397427011</v>
+        <v>-0.1024380167599118</v>
       </c>
       <c r="G30">
-        <v>0.03205279277756243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01355634243053232</v>
+      </c>
+      <c r="H30">
+        <v>0.01984447994775832</v>
+      </c>
+      <c r="I30">
+        <v>0.01036719988706514</v>
+      </c>
+      <c r="J30">
+        <v>-0.03575005567318355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05871149707791012</v>
+        <v>0.06257920503782406</v>
       </c>
       <c r="C31">
-        <v>-0.0148208377846811</v>
+        <v>0.02235231962898932</v>
       </c>
       <c r="D31">
-        <v>0.02082916702889278</v>
+        <v>0.005537601370314321</v>
       </c>
       <c r="E31">
-        <v>-0.01747070375117486</v>
+        <v>0.0212095506535834</v>
       </c>
       <c r="F31">
-        <v>0.01201362209278644</v>
+        <v>-0.00139164610789437</v>
       </c>
       <c r="G31">
-        <v>0.05306115777388275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04220406290546926</v>
+      </c>
+      <c r="H31">
+        <v>0.03298330318266728</v>
+      </c>
+      <c r="I31">
+        <v>-0.009075788650774897</v>
+      </c>
+      <c r="J31">
+        <v>-0.01191984507410026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06902850697426638</v>
+        <v>0.04585135902503715</v>
       </c>
       <c r="C32">
-        <v>-0.03278916096243016</v>
+        <v>0.04368541257906717</v>
       </c>
       <c r="D32">
-        <v>0.01389338902064181</v>
+        <v>-0.02902253361244443</v>
       </c>
       <c r="E32">
-        <v>0.1067565071367554</v>
+        <v>0.02754599616171284</v>
       </c>
       <c r="F32">
-        <v>-0.008179371865966446</v>
+        <v>-0.08794163008780935</v>
       </c>
       <c r="G32">
-        <v>0.02449972442863393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01633207451962908</v>
+      </c>
+      <c r="H32">
+        <v>0.04026998753407707</v>
+      </c>
+      <c r="I32">
+        <v>-0.02304032119324246</v>
+      </c>
+      <c r="J32">
+        <v>-0.0441308950856787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06990367048900625</v>
+        <v>0.0592017615168755</v>
       </c>
       <c r="C33">
-        <v>-0.03930613881000301</v>
+        <v>0.05452095007106113</v>
       </c>
       <c r="D33">
-        <v>0.01191436817499443</v>
+        <v>0.003055048485830278</v>
       </c>
       <c r="E33">
-        <v>0.06971088096647332</v>
+        <v>0.007847359382175746</v>
       </c>
       <c r="F33">
-        <v>0.0464964539118763</v>
+        <v>-0.07726899445685216</v>
       </c>
       <c r="G33">
-        <v>0.01536465197748862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03729698367985468</v>
+      </c>
+      <c r="H33">
+        <v>0.03784064074432226</v>
+      </c>
+      <c r="I33">
+        <v>0.01170594243162858</v>
+      </c>
+      <c r="J33">
+        <v>-0.04888298948257277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04782449191922189</v>
+        <v>0.04672219199072983</v>
       </c>
       <c r="C34">
-        <v>-0.01653625468652461</v>
+        <v>0.028588489442578</v>
       </c>
       <c r="D34">
-        <v>0.0002254823009214716</v>
+        <v>-0.01194555156557157</v>
       </c>
       <c r="E34">
-        <v>0.02488884671622173</v>
+        <v>0.01348338769074098</v>
       </c>
       <c r="F34">
-        <v>-0.005125970021815251</v>
+        <v>-0.030272373497512</v>
       </c>
       <c r="G34">
-        <v>0.009448786282451681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001370047897001507</v>
+      </c>
+      <c r="H34">
+        <v>0.01183539121184332</v>
+      </c>
+      <c r="I34">
+        <v>0.009093814359215888</v>
+      </c>
+      <c r="J34">
+        <v>-0.03143670878863936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01340639782555833</v>
+        <v>0.01624494589252534</v>
       </c>
       <c r="C36">
-        <v>0.006664464196334241</v>
+        <v>0.0006972559948243282</v>
       </c>
       <c r="D36">
-        <v>0.009094091211798308</v>
+        <v>-0.004889318153692861</v>
       </c>
       <c r="E36">
-        <v>0.02268872836035123</v>
+        <v>0.009578120990162033</v>
       </c>
       <c r="F36">
-        <v>0.007922801578752572</v>
+        <v>-0.02818035629120535</v>
       </c>
       <c r="G36">
-        <v>0.01754510346095565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02363238489436765</v>
+      </c>
+      <c r="H36">
+        <v>0.02807336913504774</v>
+      </c>
+      <c r="I36">
+        <v>0.005261883683968107</v>
+      </c>
+      <c r="J36">
+        <v>-0.001601778444249067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05730273268608117</v>
+        <v>0.03533148065158038</v>
       </c>
       <c r="C38">
-        <v>-0.01316196051762237</v>
+        <v>0.01390040692297989</v>
       </c>
       <c r="D38">
-        <v>0.02655273814214031</v>
+        <v>-0.00743904107407061</v>
       </c>
       <c r="E38">
-        <v>0.0321164074293282</v>
+        <v>0.01266063465050396</v>
       </c>
       <c r="F38">
-        <v>0.003087429650579415</v>
+        <v>-0.05128866411236639</v>
       </c>
       <c r="G38">
-        <v>-0.026074888826766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02835043169251183</v>
+      </c>
+      <c r="H38">
+        <v>0.01339850971091951</v>
+      </c>
+      <c r="I38">
+        <v>0.0140813709056697</v>
+      </c>
+      <c r="J38">
+        <v>-0.002346627425129214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07444137790284751</v>
+        <v>0.05876449732569047</v>
       </c>
       <c r="C39">
-        <v>-0.01483449094605868</v>
+        <v>0.04053611920421613</v>
       </c>
       <c r="D39">
-        <v>0.005296977425037292</v>
+        <v>-0.006274516651345826</v>
       </c>
       <c r="E39">
-        <v>0.04208688279717644</v>
+        <v>0.01543315767989201</v>
       </c>
       <c r="F39">
-        <v>0.01861044296338325</v>
+        <v>-0.05545828128173187</v>
       </c>
       <c r="G39">
-        <v>0.008574539048087554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01760078849006686</v>
+      </c>
+      <c r="H39">
+        <v>5.42793593499292e-05</v>
+      </c>
+      <c r="I39">
+        <v>0.0308729518708161</v>
+      </c>
+      <c r="J39">
+        <v>-0.04618794862299088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07590386682755249</v>
+        <v>0.05800366218178851</v>
       </c>
       <c r="C40">
-        <v>-0.03721959735386948</v>
+        <v>0.04641498823622055</v>
       </c>
       <c r="D40">
-        <v>0.01255619819695557</v>
+        <v>0.00764555349976189</v>
       </c>
       <c r="E40">
-        <v>0.1021154227145011</v>
+        <v>0.02208327186778843</v>
       </c>
       <c r="F40">
-        <v>0.0315405200008337</v>
+        <v>-0.09555818435736092</v>
       </c>
       <c r="G40">
-        <v>-0.03447737186224967</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0253118034337072</v>
+      </c>
+      <c r="H40">
+        <v>0.0532346611461962</v>
+      </c>
+      <c r="I40">
+        <v>-0.01489600793991516</v>
+      </c>
+      <c r="J40">
+        <v>-0.1147452303393528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003349211889011988</v>
+        <v>0.003062716809688077</v>
       </c>
       <c r="C41">
-        <v>-0.01377787848788317</v>
+        <v>0.0100233119357353</v>
       </c>
       <c r="D41">
-        <v>0.02476479065461547</v>
+        <v>-0.004023999152597181</v>
       </c>
       <c r="E41">
-        <v>0.01401649182924047</v>
+        <v>0.007731525057259384</v>
       </c>
       <c r="F41">
-        <v>0.03267242280908411</v>
+        <v>-0.01449800489695439</v>
       </c>
       <c r="G41">
-        <v>0.02748955322145141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0382204733307959</v>
+      </c>
+      <c r="H41">
+        <v>0.03299598645121237</v>
+      </c>
+      <c r="I41">
+        <v>-0.02084688638788797</v>
+      </c>
+      <c r="J41">
+        <v>-0.009206922160237932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1408454415030106</v>
+        <v>0.2173851915041951</v>
       </c>
       <c r="C42">
-        <v>-0.186833676130332</v>
+        <v>0.1849232396013383</v>
       </c>
       <c r="D42">
-        <v>-0.9334541414668399</v>
+        <v>0.003203082276933241</v>
       </c>
       <c r="E42">
-        <v>-0.05786506802524489</v>
+        <v>-0.9298912786336599</v>
       </c>
       <c r="F42">
-        <v>-0.03143948106795929</v>
+        <v>0.1523507608047371</v>
       </c>
       <c r="G42">
-        <v>0.07692494500658641</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.006729819931395245</v>
+      </c>
+      <c r="H42">
+        <v>0.003716735817344924</v>
+      </c>
+      <c r="I42">
+        <v>-0.04686354173275274</v>
+      </c>
+      <c r="J42">
+        <v>-0.01990366532347343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.00622362572609308</v>
+        <v>0.005629384969624266</v>
       </c>
       <c r="C43">
-        <v>-0.0173675297782863</v>
+        <v>0.01442652994111382</v>
       </c>
       <c r="D43">
-        <v>0.01879175083298921</v>
+        <v>-0.00268410790048702</v>
       </c>
       <c r="E43">
-        <v>0.03475454303390191</v>
+        <v>0.008286695756441106</v>
       </c>
       <c r="F43">
-        <v>0.00764075385507912</v>
+        <v>-0.02891807236993127</v>
       </c>
       <c r="G43">
-        <v>0.02170527343014054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02173079708729428</v>
+      </c>
+      <c r="H43">
+        <v>0.03195526181730561</v>
+      </c>
+      <c r="I43">
+        <v>-0.0137241253375846</v>
+      </c>
+      <c r="J43">
+        <v>-0.01880505504132651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03962854462213394</v>
+        <v>0.02862634702766163</v>
       </c>
       <c r="C44">
-        <v>-0.04502676892586606</v>
+        <v>0.03959381479744435</v>
       </c>
       <c r="D44">
-        <v>0.01563041597118244</v>
+        <v>-0.01456362821480062</v>
       </c>
       <c r="E44">
-        <v>0.1195375648398399</v>
+        <v>0.008933990981176703</v>
       </c>
       <c r="F44">
-        <v>0.09191656079792011</v>
+        <v>-0.1219180376418784</v>
       </c>
       <c r="G44">
-        <v>0.03174100169795401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06516456679113111</v>
+      </c>
+      <c r="H44">
+        <v>0.1028155556842156</v>
+      </c>
+      <c r="I44">
+        <v>-0.02134713279866304</v>
+      </c>
+      <c r="J44">
+        <v>-0.02609985052324604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02676336445319943</v>
+        <v>0.02530886423728708</v>
       </c>
       <c r="C46">
-        <v>-0.01765478753821229</v>
+        <v>0.03381596010026916</v>
       </c>
       <c r="D46">
-        <v>0.03192574736487358</v>
+        <v>-0.008974601777286569</v>
       </c>
       <c r="E46">
-        <v>0.02255550802251992</v>
+        <v>0.02705077837432577</v>
       </c>
       <c r="F46">
-        <v>0.02406049976680598</v>
+        <v>-0.04572905373739559</v>
       </c>
       <c r="G46">
-        <v>0.03048383519929532</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02701541006549728</v>
+      </c>
+      <c r="H46">
+        <v>0.05339874213673836</v>
+      </c>
+      <c r="I46">
+        <v>-1.855194766777118e-05</v>
+      </c>
+      <c r="J46">
+        <v>-0.0196781624974303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08695435509447347</v>
+        <v>0.09188431886978479</v>
       </c>
       <c r="C47">
-        <v>-0.009957488047080989</v>
+        <v>0.01775851568806724</v>
       </c>
       <c r="D47">
-        <v>0.02094176099543175</v>
+        <v>0.002149046816323525</v>
       </c>
       <c r="E47">
-        <v>-0.02419574147523306</v>
+        <v>0.02493742535207991</v>
       </c>
       <c r="F47">
-        <v>0.008683021068588159</v>
+        <v>0.01204581201654365</v>
       </c>
       <c r="G47">
-        <v>0.03074157923229884</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04334808770782108</v>
+      </c>
+      <c r="H47">
+        <v>0.05710643757305855</v>
+      </c>
+      <c r="I47">
+        <v>-0.01512051857604276</v>
+      </c>
+      <c r="J47">
+        <v>-0.02082907807162574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01759960523309769</v>
+        <v>0.01919676302190933</v>
       </c>
       <c r="C48">
-        <v>-0.02100943408612844</v>
+        <v>0.01967071019807646</v>
       </c>
       <c r="D48">
-        <v>0.0181020581462496</v>
+        <v>-0.008028994223407524</v>
       </c>
       <c r="E48">
-        <v>0.02777638352206444</v>
+        <v>0.01302436927960411</v>
       </c>
       <c r="F48">
-        <v>0.01042187173182099</v>
+        <v>-0.03050199942081034</v>
       </c>
       <c r="G48">
-        <v>0.005287078933717266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01580060499340356</v>
+      </c>
+      <c r="H48">
+        <v>0.02303032169825038</v>
+      </c>
+      <c r="I48">
+        <v>-0.01048947777320837</v>
+      </c>
+      <c r="J48">
+        <v>-0.01089880703187995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08671801413021947</v>
+        <v>0.08871621105472298</v>
       </c>
       <c r="C50">
-        <v>-0.03627118414543828</v>
+        <v>0.03269104205457637</v>
       </c>
       <c r="D50">
-        <v>0.02845493221054748</v>
+        <v>-0.01995806975018987</v>
       </c>
       <c r="E50">
-        <v>-0.01752183228156134</v>
+        <v>0.02301811861524563</v>
       </c>
       <c r="F50">
-        <v>-0.0006126190346009933</v>
+        <v>0.005292739613775095</v>
       </c>
       <c r="G50">
-        <v>0.03783732010063406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.003448169652453969</v>
+      </c>
+      <c r="H50">
+        <v>0.04032198492384289</v>
+      </c>
+      <c r="I50">
+        <v>0.01255810277273687</v>
+      </c>
+      <c r="J50">
+        <v>-0.003755976914587097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06244373328913488</v>
+        <v>0.04531898425212366</v>
       </c>
       <c r="C51">
-        <v>0.02361491302584853</v>
+        <v>-0.000375376334393677</v>
       </c>
       <c r="D51">
-        <v>-0.002610493102432355</v>
+        <v>0.01514411067679552</v>
       </c>
       <c r="E51">
-        <v>0.08507345548193243</v>
+        <v>0.00848282250075095</v>
       </c>
       <c r="F51">
-        <v>0.04541245354086856</v>
+        <v>-0.09397914062214996</v>
       </c>
       <c r="G51">
-        <v>0.06137871482245599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05184761310031977</v>
+      </c>
+      <c r="H51">
+        <v>0.05703583295099152</v>
+      </c>
+      <c r="I51">
+        <v>-0.02983019844305244</v>
+      </c>
+      <c r="J51">
+        <v>-0.04023270763638737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1430930056897436</v>
+        <v>0.1277041123063576</v>
       </c>
       <c r="C53">
-        <v>-0.009726831012723343</v>
+        <v>0.03555116412259667</v>
       </c>
       <c r="D53">
-        <v>0.04502634649509112</v>
+        <v>-0.001572363219375487</v>
       </c>
       <c r="E53">
-        <v>-0.05075449525606019</v>
+        <v>0.04746078000333423</v>
       </c>
       <c r="F53">
-        <v>-0.009516011010175738</v>
+        <v>0.0416758018562965</v>
       </c>
       <c r="G53">
-        <v>0.03506129882137809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02381399144858359</v>
+      </c>
+      <c r="H53">
+        <v>0.001207864548863789</v>
+      </c>
+      <c r="I53">
+        <v>-0.03603106031662427</v>
+      </c>
+      <c r="J53">
+        <v>-0.03029574155976981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02811420357106259</v>
+        <v>0.02620359924971844</v>
       </c>
       <c r="C54">
-        <v>-0.0005983715036443952</v>
+        <v>0.001556478259442948</v>
       </c>
       <c r="D54">
-        <v>0.03652423662399186</v>
+        <v>-0.005274527631219993</v>
       </c>
       <c r="E54">
-        <v>0.03205653627393758</v>
+        <v>0.0272842076121483</v>
       </c>
       <c r="F54">
-        <v>0.04893067663971515</v>
+        <v>-0.03786854461752263</v>
       </c>
       <c r="G54">
-        <v>0.01010501145340673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05226969461826173</v>
+      </c>
+      <c r="H54">
+        <v>0.04166660825444214</v>
+      </c>
+      <c r="I54">
+        <v>-0.02700497616005176</v>
+      </c>
+      <c r="J54">
+        <v>0.005934769042210328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09826586270428908</v>
+        <v>0.1014773035347259</v>
       </c>
       <c r="C55">
-        <v>0.001394804372134769</v>
+        <v>0.01776141698826272</v>
       </c>
       <c r="D55">
-        <v>0.03658358703546072</v>
+        <v>-0.0157030555905396</v>
       </c>
       <c r="E55">
-        <v>-0.008518383736585904</v>
+        <v>0.03149882186816783</v>
       </c>
       <c r="F55">
-        <v>-0.03576687598937358</v>
+        <v>0.0290336340422624</v>
       </c>
       <c r="G55">
-        <v>-0.0153512301449484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005871122484777141</v>
+      </c>
+      <c r="H55">
+        <v>0.01471730724734926</v>
+      </c>
+      <c r="I55">
+        <v>-0.01618364140910569</v>
+      </c>
+      <c r="J55">
+        <v>-0.03030999898339283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1781482563846363</v>
+        <v>0.1692577652789299</v>
       </c>
       <c r="C56">
-        <v>0.01304512103618591</v>
+        <v>0.01557450489887679</v>
       </c>
       <c r="D56">
-        <v>0.07667267632597108</v>
+        <v>-0.00317277110955626</v>
       </c>
       <c r="E56">
-        <v>-0.09630836266504075</v>
+        <v>0.08398876734892205</v>
       </c>
       <c r="F56">
-        <v>-0.08346319918689996</v>
+        <v>0.08708976506164334</v>
       </c>
       <c r="G56">
-        <v>7.155789857024932e-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02847600709703501</v>
+      </c>
+      <c r="H56">
+        <v>-0.04010145746534304</v>
+      </c>
+      <c r="I56">
+        <v>-0.03025403260574305</v>
+      </c>
+      <c r="J56">
+        <v>-0.04227346325893173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09120268806337883</v>
+        <v>0.07175720848454242</v>
       </c>
       <c r="C57">
-        <v>-0.03038626221276347</v>
+        <v>0.03982961477505287</v>
       </c>
       <c r="D57">
-        <v>0.0257016187897218</v>
+        <v>0.006270110428762922</v>
       </c>
       <c r="E57">
-        <v>0.04825719679341108</v>
+        <v>0.01150706127930142</v>
       </c>
       <c r="F57">
-        <v>0.0315215021277423</v>
+        <v>-0.06218021895229535</v>
       </c>
       <c r="G57">
-        <v>0.02942402642246295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0245088335379075</v>
+      </c>
+      <c r="H57">
+        <v>0.02784236481543602</v>
+      </c>
+      <c r="I57">
+        <v>0.005640720278573295</v>
+      </c>
+      <c r="J57">
+        <v>-0.04301310270691156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1793475265011088</v>
+        <v>0.2043927615451213</v>
       </c>
       <c r="C58">
-        <v>-0.02041556324920119</v>
+        <v>0.1135420691851424</v>
       </c>
       <c r="D58">
-        <v>-0.03192566215556247</v>
+        <v>0.05938700848026653</v>
       </c>
       <c r="E58">
-        <v>0.1210830774230535</v>
+        <v>-0.0101689133186926</v>
       </c>
       <c r="F58">
-        <v>-0.06275921499410109</v>
+        <v>-0.2384189730681542</v>
       </c>
       <c r="G58">
-        <v>0.04091297062056969</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1590232034904</v>
+      </c>
+      <c r="H58">
+        <v>0.3555141077754866</v>
+      </c>
+      <c r="I58">
+        <v>0.1723557338532501</v>
+      </c>
+      <c r="J58">
+        <v>0.7583198807195656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01313164885036526</v>
+        <v>0.03977020327618032</v>
       </c>
       <c r="C59">
-        <v>0.2018414061861881</v>
+        <v>-0.1819594832715315</v>
       </c>
       <c r="D59">
-        <v>0.0124514767695272</v>
+        <v>0.08152033473040682</v>
       </c>
       <c r="E59">
-        <v>0.06021023677028834</v>
+        <v>0.001878940028694622</v>
       </c>
       <c r="F59">
-        <v>0.0113421555832611</v>
+        <v>-0.07265819567639259</v>
       </c>
       <c r="G59">
-        <v>0.01092900399669272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.005802059409685729</v>
+      </c>
+      <c r="H59">
+        <v>-0.01946033221500418</v>
+      </c>
+      <c r="I59">
+        <v>-0.05694964541131986</v>
+      </c>
+      <c r="J59">
+        <v>0.0190810974631109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1880348473606089</v>
+        <v>0.1854748711148044</v>
       </c>
       <c r="C60">
-        <v>0.09557292209571099</v>
+        <v>-0.02790797577135504</v>
       </c>
       <c r="D60">
-        <v>0.01120216567175151</v>
+        <v>0.06341737858213105</v>
       </c>
       <c r="E60">
-        <v>0.1882839454349673</v>
+        <v>0.01168636469928041</v>
       </c>
       <c r="F60">
-        <v>0.05172998174399514</v>
+        <v>-0.2043592436967797</v>
       </c>
       <c r="G60">
-        <v>0.00246370894625637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07948878266710234</v>
+      </c>
+      <c r="H60">
+        <v>-0.272225132289674</v>
+      </c>
+      <c r="I60">
+        <v>0.09385294501643023</v>
+      </c>
+      <c r="J60">
+        <v>-0.02352337447393108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05021089740489735</v>
+        <v>0.04026568398030355</v>
       </c>
       <c r="C61">
-        <v>-0.003803702077688056</v>
+        <v>0.0238396405345908</v>
       </c>
       <c r="D61">
-        <v>-0.00179108053957339</v>
+        <v>-0.007660659530480821</v>
       </c>
       <c r="E61">
-        <v>0.0400471727362041</v>
+        <v>0.005524257928986913</v>
       </c>
       <c r="F61">
-        <v>0.006503087556273261</v>
+        <v>-0.03848679479773878</v>
       </c>
       <c r="G61">
-        <v>0.004804609205662157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009456392445788404</v>
+      </c>
+      <c r="H61">
+        <v>-0.003123777249003632</v>
+      </c>
+      <c r="I61">
+        <v>0.03562849437287628</v>
+      </c>
+      <c r="J61">
+        <v>-0.02430757630743119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04748075487358989</v>
+        <v>0.03144184667490565</v>
       </c>
       <c r="C63">
-        <v>-0.004568560552951499</v>
+        <v>0.01807943955296048</v>
       </c>
       <c r="D63">
-        <v>0.02327649691069777</v>
+        <v>-0.004331780297355595</v>
       </c>
       <c r="E63">
-        <v>0.03501348523915488</v>
+        <v>0.01287772574767477</v>
       </c>
       <c r="F63">
-        <v>0.003786912014084413</v>
+        <v>-0.02850326863156062</v>
       </c>
       <c r="G63">
-        <v>0.02511720440709088</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0113344052211262</v>
+      </c>
+      <c r="H63">
+        <v>0.05082362938780271</v>
+      </c>
+      <c r="I63">
+        <v>-0.03473405548997145</v>
+      </c>
+      <c r="J63">
+        <v>-0.03275306577576797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08332475805415561</v>
+        <v>0.05768291770419857</v>
       </c>
       <c r="C64">
-        <v>-0.04762157652868641</v>
+        <v>0.04285089205512643</v>
       </c>
       <c r="D64">
-        <v>0.06449819561883016</v>
+        <v>-0.02805382438814438</v>
       </c>
       <c r="E64">
-        <v>0.05326290654639537</v>
+        <v>0.0416334031268419</v>
       </c>
       <c r="F64">
-        <v>0.05741945963010318</v>
+        <v>-0.05000115698791834</v>
       </c>
       <c r="G64">
-        <v>-0.02233571636362549</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05541253168908618</v>
+      </c>
+      <c r="H64">
+        <v>-0.002929570837237187</v>
+      </c>
+      <c r="I64">
+        <v>-0.0326580839472449</v>
+      </c>
+      <c r="J64">
+        <v>-0.09550169095522454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01992809639455797</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.008280423921026564</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009495630629416035</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005252593407736615</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001581171834912268</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02125165856444307</v>
+      </c>
+      <c r="H65">
+        <v>-0.002960863454203732</v>
+      </c>
+      <c r="I65">
+        <v>0.01399892389847835</v>
+      </c>
+      <c r="J65">
+        <v>-0.002502795418851567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0932744895450628</v>
+        <v>0.06992670223473514</v>
       </c>
       <c r="C66">
-        <v>-0.02879057668172694</v>
+        <v>0.05624972425770876</v>
       </c>
       <c r="D66">
-        <v>0.0393062816494768</v>
+        <v>-0.002862861305517222</v>
       </c>
       <c r="E66">
-        <v>0.07631935953340471</v>
+        <v>0.04345293952269838</v>
       </c>
       <c r="F66">
-        <v>0.04103639125658521</v>
+        <v>-0.06930157150562888</v>
       </c>
       <c r="G66">
-        <v>0.01724607455103493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01558550004942575</v>
+      </c>
+      <c r="H66">
+        <v>-0.001116785049672561</v>
+      </c>
+      <c r="I66">
+        <v>0.03853661088456249</v>
+      </c>
+      <c r="J66">
+        <v>-0.07281595877074717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06401021329098318</v>
+        <v>0.04699237257413157</v>
       </c>
       <c r="C67">
-        <v>0.0115189516331176</v>
+        <v>-0.001981142206903855</v>
       </c>
       <c r="D67">
-        <v>0.01252615629231061</v>
+        <v>0.002388209927299207</v>
       </c>
       <c r="E67">
-        <v>0.02902918152410275</v>
+        <v>0.01047965551485176</v>
       </c>
       <c r="F67">
-        <v>0.006935626191718443</v>
+        <v>-0.04083819462752011</v>
       </c>
       <c r="G67">
-        <v>-0.0377882314122707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03381717530127262</v>
+      </c>
+      <c r="H67">
+        <v>-0.008965390578817024</v>
+      </c>
+      <c r="I67">
+        <v>0.0393555087452433</v>
+      </c>
+      <c r="J67">
+        <v>-0.0143264427545667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01469819585922701</v>
+        <v>0.04617917438313951</v>
       </c>
       <c r="C68">
-        <v>0.2490086366056868</v>
+        <v>-0.221823045391087</v>
       </c>
       <c r="D68">
-        <v>-0.003780744595253633</v>
+        <v>0.09118310864066399</v>
       </c>
       <c r="E68">
-        <v>0.04318143789756222</v>
+        <v>-0.01292900428309469</v>
       </c>
       <c r="F68">
-        <v>0.003966338613844063</v>
+        <v>-0.05633329495755231</v>
       </c>
       <c r="G68">
-        <v>0.02464131423581774</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002270775670588739</v>
+      </c>
+      <c r="H68">
+        <v>-0.01396104144021021</v>
+      </c>
+      <c r="I68">
+        <v>-0.1623847676995439</v>
+      </c>
+      <c r="J68">
+        <v>0.06891840080678362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07247385565075641</v>
+        <v>0.07313961014550355</v>
       </c>
       <c r="C69">
-        <v>-0.01355079582478338</v>
+        <v>0.02201423391022909</v>
       </c>
       <c r="D69">
-        <v>0.02369462069787943</v>
+        <v>0.0003625697252771804</v>
       </c>
       <c r="E69">
-        <v>-0.0178791155918592</v>
+        <v>0.03035273278152384</v>
       </c>
       <c r="F69">
-        <v>-0.0007003125835758616</v>
+        <v>0.001894603180126238</v>
       </c>
       <c r="G69">
-        <v>0.02790538323906335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0267841333958719</v>
+      </c>
+      <c r="H69">
+        <v>0.02734825680439006</v>
+      </c>
+      <c r="I69">
+        <v>0.00508457828332651</v>
+      </c>
+      <c r="J69">
+        <v>-0.02890979137073512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01420433365155678</v>
+        <v>0.05215242427063724</v>
       </c>
       <c r="C71">
-        <v>0.2728056582063325</v>
+        <v>-0.2315668723536596</v>
       </c>
       <c r="D71">
-        <v>-0.006193943516205468</v>
+        <v>0.1016972488794014</v>
       </c>
       <c r="E71">
-        <v>0.08605676511127562</v>
+        <v>-0.03213003736799592</v>
       </c>
       <c r="F71">
-        <v>0.01340871376220058</v>
+        <v>-0.08206770876573335</v>
       </c>
       <c r="G71">
-        <v>0.03291320473234751</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01155301054977915</v>
+      </c>
+      <c r="H71">
+        <v>-0.0284052950056807</v>
+      </c>
+      <c r="I71">
+        <v>-0.1254462516213946</v>
+      </c>
+      <c r="J71">
+        <v>0.03005076620869127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1161088296357192</v>
+        <v>0.122982145484417</v>
       </c>
       <c r="C72">
-        <v>0.002798885692089876</v>
+        <v>0.02854425559043787</v>
       </c>
       <c r="D72">
-        <v>0.04062391613710608</v>
+        <v>0.0008239032884286497</v>
       </c>
       <c r="E72">
-        <v>0.09703723135762736</v>
+        <v>0.06087951517035019</v>
       </c>
       <c r="F72">
-        <v>-0.007408486303945018</v>
+        <v>-0.08250476630152906</v>
       </c>
       <c r="G72">
-        <v>-0.02014563050386357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0398090004731757</v>
+      </c>
+      <c r="H72">
+        <v>-0.01504035028990676</v>
+      </c>
+      <c r="I72">
+        <v>0.07146828010040296</v>
+      </c>
+      <c r="J72">
+        <v>0.08856720103780251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2910209691248091</v>
+        <v>0.2705192879481282</v>
       </c>
       <c r="C73">
-        <v>0.1620878725478603</v>
+        <v>-0.05088050732666651</v>
       </c>
       <c r="D73">
-        <v>-0.03955688796726297</v>
+        <v>0.1181158939844254</v>
       </c>
       <c r="E73">
-        <v>0.337691034007335</v>
+        <v>-0.03178067726946736</v>
       </c>
       <c r="F73">
-        <v>0.04144588064981558</v>
+        <v>-0.3087053433358348</v>
       </c>
       <c r="G73">
-        <v>-0.03080145048472433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1866616357517961</v>
+      </c>
+      <c r="H73">
+        <v>-0.4709585762463036</v>
+      </c>
+      <c r="I73">
+        <v>0.2774569838964528</v>
+      </c>
+      <c r="J73">
+        <v>-0.04993208096265773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1608823945817079</v>
+        <v>0.1517345911682859</v>
       </c>
       <c r="C74">
-        <v>0.002237249764085387</v>
+        <v>0.02535566883157695</v>
       </c>
       <c r="D74">
-        <v>0.04193585234127788</v>
+        <v>0.008546708706329528</v>
       </c>
       <c r="E74">
-        <v>-0.02065507481757983</v>
+        <v>0.04611867807426891</v>
       </c>
       <c r="F74">
-        <v>-0.06069251313283793</v>
+        <v>0.05413466213482539</v>
       </c>
       <c r="G74">
-        <v>0.05196569582621077</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01769991086013816</v>
+      </c>
+      <c r="H74">
+        <v>-0.02481282723768114</v>
+      </c>
+      <c r="I74">
+        <v>-0.01863301687470078</v>
+      </c>
+      <c r="J74">
+        <v>-0.08561452287350589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2336541378137542</v>
+        <v>0.2425877298609676</v>
       </c>
       <c r="C75">
-        <v>0.01206346238600914</v>
+        <v>0.0230848702550733</v>
       </c>
       <c r="D75">
-        <v>0.06422051695291191</v>
+        <v>0.02514633706842192</v>
       </c>
       <c r="E75">
-        <v>-0.1282404382054649</v>
+        <v>0.1034502038522786</v>
       </c>
       <c r="F75">
-        <v>-0.04180358303749897</v>
+        <v>0.1481657082440389</v>
       </c>
       <c r="G75">
-        <v>0.04792358612436758</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006581688190433176</v>
+      </c>
+      <c r="H75">
+        <v>-0.01430733135937936</v>
+      </c>
+      <c r="I75">
+        <v>-0.09270683395310735</v>
+      </c>
+      <c r="J75">
+        <v>-0.02227976671449804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2432124599553346</v>
+        <v>0.2664945853591669</v>
       </c>
       <c r="C76">
-        <v>0.01501271956886202</v>
+        <v>0.01176010947714592</v>
       </c>
       <c r="D76">
-        <v>0.09920385696059754</v>
+        <v>-0.01105755554025583</v>
       </c>
       <c r="E76">
-        <v>-0.1306880792611645</v>
+        <v>0.126765902818098</v>
       </c>
       <c r="F76">
-        <v>-0.08053636914733868</v>
+        <v>0.1806976610785874</v>
       </c>
       <c r="G76">
-        <v>0.03461025062166454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05368574236191814</v>
+      </c>
+      <c r="H76">
+        <v>-0.03876448507676077</v>
+      </c>
+      <c r="I76">
+        <v>-0.0272385862888939</v>
+      </c>
+      <c r="J76">
+        <v>-0.0662532662109428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1417638399439753</v>
+        <v>0.128704710648381</v>
       </c>
       <c r="C77">
-        <v>-0.03525757336875388</v>
+        <v>0.06678954917633798</v>
       </c>
       <c r="D77">
-        <v>-0.03407760995750232</v>
+        <v>-0.01294061130427418</v>
       </c>
       <c r="E77">
-        <v>0.1499565292393201</v>
+        <v>-0.04063390402086807</v>
       </c>
       <c r="F77">
-        <v>0.01254271904709566</v>
+        <v>-0.1672965802361425</v>
       </c>
       <c r="G77">
-        <v>-0.05840570214705744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.002639665426972091</v>
+      </c>
+      <c r="H77">
+        <v>0.2284695152091722</v>
+      </c>
+      <c r="I77">
+        <v>-0.2288854982963949</v>
+      </c>
+      <c r="J77">
+        <v>-0.1017664223838737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08616047205637102</v>
+        <v>0.0820145616172617</v>
       </c>
       <c r="C78">
-        <v>-0.04267758551184744</v>
+        <v>0.0703090927503915</v>
       </c>
       <c r="D78">
-        <v>-0.0163225267768859</v>
+        <v>-0.02702361981977525</v>
       </c>
       <c r="E78">
-        <v>0.04786410971168536</v>
+        <v>0.006710680995243266</v>
       </c>
       <c r="F78">
-        <v>0.008880950022519565</v>
+        <v>-0.07264863415629809</v>
       </c>
       <c r="G78">
-        <v>0.01530362324210475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0154226346097352</v>
+      </c>
+      <c r="H78">
+        <v>0.0260486409207876</v>
+      </c>
+      <c r="I78">
+        <v>-0.02591958569471131</v>
+      </c>
+      <c r="J78">
+        <v>-0.04261656667516603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06699913156975393</v>
+        <v>0.1500696268490113</v>
       </c>
       <c r="C80">
-        <v>-0.01794490446316878</v>
+        <v>-0.3501205926841553</v>
       </c>
       <c r="D80">
-        <v>-0.03011261046777823</v>
+        <v>-0.907815543740225</v>
       </c>
       <c r="E80">
-        <v>-0.03724735060749868</v>
+        <v>-0.05537868086794454</v>
       </c>
       <c r="F80">
-        <v>-0.1485369199641455</v>
+        <v>-0.04720684649049391</v>
       </c>
       <c r="G80">
-        <v>-0.9359750576098205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.043861735517105</v>
+      </c>
+      <c r="H80">
+        <v>-0.05894225713545061</v>
+      </c>
+      <c r="I80">
+        <v>0.03044009006673992</v>
+      </c>
+      <c r="J80">
+        <v>0.09826691295334612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1638832930864539</v>
+        <v>0.1790994033689418</v>
       </c>
       <c r="C81">
-        <v>0.0118362702438747</v>
+        <v>0.005770575999719815</v>
       </c>
       <c r="D81">
-        <v>0.05716664386534071</v>
+        <v>0.007003236305714249</v>
       </c>
       <c r="E81">
-        <v>-0.1619401042284111</v>
+        <v>0.08429965385880828</v>
       </c>
       <c r="F81">
-        <v>-0.1046199598792109</v>
+        <v>0.1632786592120749</v>
       </c>
       <c r="G81">
-        <v>0.03794844729228325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02969958623704344</v>
+      </c>
+      <c r="H81">
+        <v>-0.006309623194854843</v>
+      </c>
+      <c r="I81">
+        <v>-0.0585794202415942</v>
+      </c>
+      <c r="J81">
+        <v>-0.006999952216537161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09265970482576023</v>
+        <v>0.06976396399969921</v>
       </c>
       <c r="C83">
-        <v>-0.04779455085444063</v>
+        <v>0.05032344200315406</v>
       </c>
       <c r="D83">
-        <v>-0.07383556828271068</v>
+        <v>-0.000621858293043651</v>
       </c>
       <c r="E83">
-        <v>0.01110791119390602</v>
+        <v>-0.03896204142891181</v>
       </c>
       <c r="F83">
-        <v>0.05841795359982485</v>
+        <v>-0.04370752904008759</v>
       </c>
       <c r="G83">
-        <v>0.01827411789637157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06037307197439762</v>
+      </c>
+      <c r="H83">
+        <v>0.02356227717784041</v>
+      </c>
+      <c r="I83">
+        <v>-0.02546067481712233</v>
+      </c>
+      <c r="J83">
+        <v>-0.0764302341653786</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2313835067824762</v>
+        <v>0.25037182395944</v>
       </c>
       <c r="C85">
-        <v>-0.04693567635537028</v>
+        <v>0.04898647989065202</v>
       </c>
       <c r="D85">
-        <v>0.05872836585421051</v>
+        <v>-0.007011601428168459</v>
       </c>
       <c r="E85">
-        <v>-0.1610228300680967</v>
+        <v>0.08871809993424307</v>
       </c>
       <c r="F85">
-        <v>-0.06642866098515032</v>
+        <v>0.1841535244792884</v>
       </c>
       <c r="G85">
-        <v>0.02176261892160569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.005884601434143009</v>
+      </c>
+      <c r="H85">
+        <v>0.0225554724760603</v>
+      </c>
+      <c r="I85">
+        <v>-0.05129021484268759</v>
+      </c>
+      <c r="J85">
+        <v>-0.07520681573336616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04250254956647061</v>
+        <v>0.02648519029700494</v>
       </c>
       <c r="C86">
-        <v>-0.05005147852343542</v>
+        <v>0.06206024359724312</v>
       </c>
       <c r="D86">
-        <v>0.0166676870710076</v>
+        <v>-0.02172029171492458</v>
       </c>
       <c r="E86">
-        <v>0.06002593404547592</v>
+        <v>0.01114330609143</v>
       </c>
       <c r="F86">
-        <v>-0.0007336183145154502</v>
+        <v>-0.06777469436630758</v>
       </c>
       <c r="G86">
-        <v>0.0326899980745293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006516630672301491</v>
+      </c>
+      <c r="H86">
+        <v>0.06625622832425974</v>
+      </c>
+      <c r="I86">
+        <v>-0.02728029601757718</v>
+      </c>
+      <c r="J86">
+        <v>-0.03890433370208004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02559464592783712</v>
+        <v>0.03552323221263265</v>
       </c>
       <c r="C87">
-        <v>0.05060854775496245</v>
+        <v>-0.009949871627646557</v>
       </c>
       <c r="D87">
-        <v>0.006964204867673833</v>
+        <v>0.007905449297932857</v>
       </c>
       <c r="E87">
-        <v>0.09153153224782304</v>
+        <v>0.003930601577740481</v>
       </c>
       <c r="F87">
-        <v>-0.02337458433188264</v>
+        <v>-0.1014274831489745</v>
       </c>
       <c r="G87">
-        <v>0.02714918451763383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02311739521066404</v>
+      </c>
+      <c r="H87">
+        <v>0.01583713161874851</v>
+      </c>
+      <c r="I87">
+        <v>0.02007173664639442</v>
+      </c>
+      <c r="J87">
+        <v>-0.01418325305830078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03881427159224823</v>
+        <v>0.02903824010713283</v>
       </c>
       <c r="C88">
-        <v>-0.03208423288754859</v>
+        <v>0.01656718946225536</v>
       </c>
       <c r="D88">
-        <v>0.009704445668101441</v>
+        <v>-0.01781828102207228</v>
       </c>
       <c r="E88">
-        <v>-0.01383418202085793</v>
+        <v>0.0161800867563735</v>
       </c>
       <c r="F88">
-        <v>-0.01294127447447533</v>
+        <v>0.01358327745058128</v>
       </c>
       <c r="G88">
-        <v>0.01008653128916949</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03527130878341959</v>
+      </c>
+      <c r="H88">
+        <v>0.03526087767722707</v>
+      </c>
+      <c r="I88">
+        <v>0.02544427446548313</v>
+      </c>
+      <c r="J88">
+        <v>-0.02982235089084897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.001688673466866862</v>
+        <v>0.06641718883863239</v>
       </c>
       <c r="C89">
-        <v>0.4163411628262924</v>
+        <v>-0.3587868701632907</v>
       </c>
       <c r="D89">
-        <v>-0.08901556602938782</v>
+        <v>0.165136745561923</v>
       </c>
       <c r="E89">
-        <v>0.005679377441634274</v>
+        <v>-0.05463288278921749</v>
       </c>
       <c r="F89">
-        <v>0.01309534484610705</v>
+        <v>-0.04124960051677987</v>
       </c>
       <c r="G89">
-        <v>0.04251512962811191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04137973368120158</v>
+      </c>
+      <c r="H89">
+        <v>0.05227042606682104</v>
+      </c>
+      <c r="I89">
+        <v>-0.2609714801100354</v>
+      </c>
+      <c r="J89">
+        <v>0.07770203689278633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.007135328723927481</v>
+        <v>0.04708691007369842</v>
       </c>
       <c r="C90">
-        <v>0.3097330459623975</v>
+        <v>-0.3118286053904188</v>
       </c>
       <c r="D90">
-        <v>-0.03293998892207151</v>
+        <v>0.1251081958269112</v>
       </c>
       <c r="E90">
-        <v>0.0456549927443038</v>
+        <v>-0.03896057220948984</v>
       </c>
       <c r="F90">
-        <v>0.01652660263021222</v>
+        <v>-0.03835243438860989</v>
       </c>
       <c r="G90">
-        <v>0.04304739212443225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0208261588572546</v>
+      </c>
+      <c r="H90">
+        <v>0.01095756706420277</v>
+      </c>
+      <c r="I90">
+        <v>-0.2283711896670946</v>
+      </c>
+      <c r="J90">
+        <v>0.04179360794508635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2789489619257943</v>
+        <v>0.2976743495279849</v>
       </c>
       <c r="C91">
-        <v>-0.02178715084334223</v>
+        <v>0.03829897302074487</v>
       </c>
       <c r="D91">
-        <v>0.06784052520720621</v>
+        <v>0.008205191391260814</v>
       </c>
       <c r="E91">
-        <v>-0.2878283811401205</v>
+        <v>0.08751326584245743</v>
       </c>
       <c r="F91">
-        <v>-0.1138568139300658</v>
+        <v>0.2895516793000886</v>
       </c>
       <c r="G91">
-        <v>-0.02295272591415463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0291094096732589</v>
+      </c>
+      <c r="H91">
+        <v>-0.003375347147444076</v>
+      </c>
+      <c r="I91">
+        <v>-0.1189967832102702</v>
+      </c>
+      <c r="J91">
+        <v>-0.06240001821070503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.01273949108835129</v>
+        <v>0.1034306633740144</v>
       </c>
       <c r="C92">
-        <v>0.426446325811612</v>
+        <v>-0.415831587017742</v>
       </c>
       <c r="D92">
-        <v>-0.1837124777422828</v>
+        <v>0.1416521304633427</v>
       </c>
       <c r="E92">
-        <v>-0.113024013073203</v>
+        <v>-0.07317129165689122</v>
       </c>
       <c r="F92">
-        <v>-0.06355024664335225</v>
+        <v>0.1153586623686868</v>
       </c>
       <c r="G92">
-        <v>-0.1350251506861383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08891949763870985</v>
+      </c>
+      <c r="H92">
+        <v>0.4309822352547939</v>
+      </c>
+      <c r="I92">
+        <v>0.6813353932983292</v>
+      </c>
+      <c r="J92">
+        <v>-0.3006194051567433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01070837043008889</v>
+        <v>0.05132600041009924</v>
       </c>
       <c r="C93">
-        <v>0.3747407804743699</v>
+        <v>-0.3734819914756868</v>
       </c>
       <c r="D93">
-        <v>-0.06197176504293842</v>
+        <v>0.1647383021541765</v>
       </c>
       <c r="E93">
-        <v>-0.02007946206540497</v>
+        <v>-0.07005750272545982</v>
       </c>
       <c r="F93">
-        <v>-0.007578154036092665</v>
+        <v>-0.008762568702808556</v>
       </c>
       <c r="G93">
-        <v>-0.03236469002815092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03289474898934076</v>
+      </c>
+      <c r="H93">
+        <v>-0.01935431828445816</v>
+      </c>
+      <c r="I93">
+        <v>-0.1642688686244464</v>
+      </c>
+      <c r="J93">
+        <v>0.0650877905227004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2755592079604289</v>
+        <v>0.3047324707398686</v>
       </c>
       <c r="C94">
-        <v>0.07189496435494086</v>
+        <v>-0.002648340641992257</v>
       </c>
       <c r="D94">
-        <v>0.03213274584280906</v>
+        <v>0.04710068946370029</v>
       </c>
       <c r="E94">
-        <v>-0.3519349942183821</v>
+        <v>0.1316677837008955</v>
       </c>
       <c r="F94">
-        <v>-0.4061004131817755</v>
+        <v>0.3437801172681532</v>
       </c>
       <c r="G94">
-        <v>0.1425909995218039</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2048400175905495</v>
+      </c>
+      <c r="H94">
+        <v>0.130942586368876</v>
+      </c>
+      <c r="I94">
+        <v>-0.01833231880858783</v>
+      </c>
+      <c r="J94">
+        <v>0.1761929713190402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1990395499489467</v>
+        <v>0.1308598389112538</v>
       </c>
       <c r="C95">
-        <v>0.03505557938489425</v>
+        <v>0.06603943213554031</v>
       </c>
       <c r="D95">
-        <v>-0.005114079274013941</v>
+        <v>0.08124058052476728</v>
       </c>
       <c r="E95">
-        <v>-0.3979536044905709</v>
+        <v>0.03904998478944668</v>
       </c>
       <c r="F95">
-        <v>0.8346051717807977</v>
+        <v>0.07724832391194332</v>
       </c>
       <c r="G95">
-        <v>-0.09685346826524265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8930059796459983</v>
+      </c>
+      <c r="H95">
+        <v>-0.1903268348546074</v>
+      </c>
+      <c r="I95">
+        <v>0.1036935934787579</v>
+      </c>
+      <c r="J95">
+        <v>0.2541920094716246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2255542733868517</v>
+        <v>0.2104280026252031</v>
       </c>
       <c r="C98">
-        <v>0.1178732922676182</v>
+        <v>-0.03828439048018697</v>
       </c>
       <c r="D98">
-        <v>-0.05272335494604632</v>
+        <v>0.08442634217612612</v>
       </c>
       <c r="E98">
-        <v>0.09786922005485356</v>
+        <v>-0.02944531509398531</v>
       </c>
       <c r="F98">
-        <v>0.05003767521481421</v>
+        <v>-0.1589506366547001</v>
       </c>
       <c r="G98">
-        <v>0.0439538082221532</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08799057186460466</v>
+      </c>
+      <c r="H98">
+        <v>-0.3254800216791863</v>
+      </c>
+      <c r="I98">
+        <v>0.1524089126711168</v>
+      </c>
+      <c r="J98">
+        <v>0.02564089371743845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02199081060029415</v>
+        <v>0.01605502220837937</v>
       </c>
       <c r="C101">
-        <v>-0.02002622526725902</v>
+        <v>0.02844851566007475</v>
       </c>
       <c r="D101">
-        <v>0.03511061915434908</v>
+        <v>-0.01566153257950252</v>
       </c>
       <c r="E101">
-        <v>0.02611204154291109</v>
+        <v>0.03384393421731621</v>
       </c>
       <c r="F101">
-        <v>0.01625450890882383</v>
+        <v>-0.06582726586638286</v>
       </c>
       <c r="G101">
-        <v>0.02396960597460035</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.019746083081429</v>
+      </c>
+      <c r="H101">
+        <v>0.1085400373158649</v>
+      </c>
+      <c r="I101">
+        <v>0.05211042855082399</v>
+      </c>
+      <c r="J101">
+        <v>0.110426654481977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1187959630125395</v>
+        <v>0.1198889551839941</v>
       </c>
       <c r="C102">
-        <v>-0.01281871828851846</v>
+        <v>0.02111080115092352</v>
       </c>
       <c r="D102">
-        <v>0.03871006626439021</v>
+        <v>-0.008353327031448294</v>
       </c>
       <c r="E102">
-        <v>-0.08984498442946319</v>
+        <v>0.0525917083103527</v>
       </c>
       <c r="F102">
-        <v>-0.00807263520728632</v>
+        <v>0.09768659425033595</v>
       </c>
       <c r="G102">
-        <v>-0.01095923561541147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01795663225100738</v>
+      </c>
+      <c r="H102">
+        <v>-0.01842855916867019</v>
+      </c>
+      <c r="I102">
+        <v>-0.05115474782176012</v>
+      </c>
+      <c r="J102">
+        <v>-0.03548719349265459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01936020236437711</v>
+        <v>0.03279235568863427</v>
       </c>
       <c r="C103">
-        <v>-0.001839222458967347</v>
+        <v>0.00486066306453856</v>
       </c>
       <c r="D103">
-        <v>0.01474193568765216</v>
+        <v>-0.009957236151865858</v>
       </c>
       <c r="E103">
-        <v>-0.03093858687449307</v>
+        <v>0.02185661277769141</v>
       </c>
       <c r="F103">
-        <v>-0.01517732187242241</v>
+        <v>0.0290495799757531</v>
       </c>
       <c r="G103">
-        <v>0.01679298684561506</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01288964791424623</v>
+      </c>
+      <c r="H103">
+        <v>0.01565199626840116</v>
+      </c>
+      <c r="I103">
+        <v>-0.03298365498726633</v>
+      </c>
+      <c r="J103">
+        <v>-0.007829299370811641</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
